--- a/translations/WiiCPP.xlsx
+++ b/translations/WiiCPP.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t xml:space="preserve">Key</t>
   </si>
@@ -31,169 +31,223 @@
     <t xml:space="preserve">.es-ES</t>
   </si>
   <si>
+    <t xml:space="preserve">.fr-FR</t>
+  </si>
+  <si>
     <t xml:space="preserve">.en-US</t>
   </si>
   <si>
+    <t xml:space="preserve">Pairing_TotalPairedDevices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Dispositivos Emparejados\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre total d'appareils jumelés\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Paired Devices\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_Scanning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escaneando...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scanning...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_RemovingOldWiimote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quitando antiguo Wiimote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supréssion de l'ancienne Wiimote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing Old Wiimote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_RemovingOldConnections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quitando conexiones antiguas...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppréssion des anciennes connexions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removing Old Connections...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_Paired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emparejado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couplé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_NoBluetoothDevicesFoundInScan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se han encontrado dispositivos bluetooth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispositif bluetooth non trouvé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Bluetooth Devices Found In Scan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_NoBluetoothDevicesFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se han encontrado dispositivos Bluetooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Bluetooth Devices Found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_FoundRadios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encontrados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trouvés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_FoundNewWiimote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encontrado nuevo Wiimote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelle Wiimote Trouvée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found New Wiimote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_FoundDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encontrado:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trouvé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_EnumeratingRadios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enumerando Radios...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enumération des radios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enumerating Radios...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_CouldNotRemoveDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No puedo quitar el dispositivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impossible de supprimer l'appareil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could Not Remove Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_CouldNotPairPermanently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No puedo emparejar permanentemente el Wiimote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impossible de jumeler la Wiimote définitivement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could Not Pair Wiimote Permanently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_CouldNotActivate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No puedo activar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impossible d'activer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could Not Activate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_Authenticated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autenticado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentifié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authenticated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairing_Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error_EnumeratingRadios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error enumerando radios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erreur lors de l'énumération des radios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error enumerating radios</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error_EnumeratingDevices</t>
   </si>
   <si>
+    <t xml:space="preserve">Error enumerando dispositivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erreur lors de l'énumération des périphériques</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error Enumerating Devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error enumerando dispositivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error_EnumeratingRadios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error enumerating radios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error enumerando radios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_Activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_Authenticated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authenticated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autenticado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_CouldNotActivate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could Not Activate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No puedo activar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_CouldNotPairPermanently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could Not Pair Wiimote Permanently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No puedo emparejar permanentemente el Wiimote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_CouldNotRemoveDevice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could Not Remove Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No puedo quitar el dispositivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_EnumeratingRadios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enumerating Radios...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enumerando Radios...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_FoundDevice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Found:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encontrado:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_FoundNewWiimote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Found New Wiimote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encontrado nuevo Wiimote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_FoundRadios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Found </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encontrados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_NoBluetoothDevicesFound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Bluetooth Devices Found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se han encontrado dispositivos Bluetooth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_NoBluetoothDevicesFoundInScan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Bluetooth Devices Found In Scan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se han encontrado dispositivos bluetooth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_Paired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emparejado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_RemovingOldConnections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removing Old Connections...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quitando conexiones antiguas...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_RemovingOldWiimote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removing Old Wiimote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quitando antiguo Wiimote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_Scanning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scanning...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escaneando...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pairing_TotalPairedDevices</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total Paired Devices\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Dispositivos Emparejados\n</t>
   </si>
 </sst>
 </file>
@@ -417,286 +471,289 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D1"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D19"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
